--- a/medicine/Enfance/Arc-en-poche/Arc-en-poche.xlsx
+++ b/medicine/Enfance/Arc-en-poche/Arc-en-poche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arc-en-poche est une collection de littérature d'enfance et de jeunesse aux éditions Nathan.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection est créée en 1979 chez Nathan par Isabelle Jan, qui avait déjà créé chez le même éditeur la collection Bibliothèque internationale en 1968. Il s'agit cette fois d'une collection de poche aux titres plus accessibles, ouverte à la littérature internationale et française.
-La collection publie d'abord de nombreux inédits, puis réédite des titres d'autres collections. Après avoir fait paraître des dizaines de titres[1], déclinés sous des séries comme "Arc-en-poche/Deux", "Contes et légendes", "Grands textes", la collection s'arrête en 1994.
+La collection publie d'abord de nombreux inédits, puis réédite des titres d'autres collections. Après avoir fait paraître des dizaines de titres, déclinés sous des séries comme "Arc-en-poche/Deux", "Contes et légendes", "Grands textes", la collection s'arrête en 1994.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joan Aiken, Le Corbeau d'Arabelle
